--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/KENTUCKY_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/KENTUCKY_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1076"/>
+  <dimension ref="A1:D1070"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C23">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C32">
@@ -857,7 +857,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1143,7 +1143,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C59">
@@ -1195,7 +1195,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C63">
@@ -1312,7 +1312,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C72">
@@ -1325,7 +1325,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C73">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C101">
@@ -1798,7 +1798,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C109">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C124">
@@ -2107,7 +2107,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C136">
@@ -2442,7 +2442,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C157">
@@ -2546,7 +2546,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C165">
@@ -2637,12 +2637,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C172">
@@ -2668,7 +2668,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C174">
@@ -2681,7 +2681,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C175">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C179">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C189">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C193">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C194">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C201">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C207">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C208">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C215">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C222">
@@ -3357,7 +3357,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C227">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C236">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C238">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C244">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C248">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C258">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C260">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C262">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C263">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C268">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C274">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C277">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C280">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C281">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C283">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C284">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C287">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C289">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C292">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C293">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C297">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C302">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C303">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C307">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C320">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C322">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C324">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C327">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C336">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C340">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C345">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C349">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C351">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C354">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C360">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C363">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C365">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C372">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C375">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C382">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C383">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C386">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C390">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C393">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C396">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C403">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C405">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C409">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C412">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C415">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C416">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C418">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C419">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C421">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C423">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C424">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C425">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C432">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C434">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C437">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C453">
@@ -7079,7 +7079,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C511">
@@ -7183,7 +7183,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C519">
@@ -7209,7 +7209,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C521">
@@ -7222,7 +7222,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C522">
@@ -7357,7 +7357,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C532">
@@ -7422,7 +7422,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C537">
@@ -7583,7 +7583,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C549">
@@ -7635,7 +7635,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C553">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C555">
@@ -7744,7 +7744,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C561">
@@ -7757,7 +7757,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C562">
@@ -7770,7 +7770,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C563">
@@ -7809,7 +7809,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C566">
@@ -7822,7 +7822,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C567">
@@ -7835,7 +7835,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C568">
@@ -7848,7 +7848,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C569">
@@ -7887,7 +7887,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C572">
@@ -7913,7 +7913,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C574">
@@ -7926,7 +7926,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C575">
@@ -7939,7 +7939,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C576">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C578">
@@ -8004,7 +8004,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C581">
@@ -8121,7 +8121,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C590">
@@ -8277,7 +8277,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C602">
@@ -8498,7 +8498,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C619">
@@ -8615,7 +8615,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C628">
@@ -8654,7 +8654,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C631">
@@ -8940,7 +8940,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C653">
@@ -8992,7 +8992,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C657">
@@ -9369,7 +9369,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C686">
@@ -9447,7 +9447,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C692">
@@ -9460,7 +9460,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C693">
@@ -9473,7 +9473,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C694">
@@ -9499,7 +9499,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C696">
@@ -9512,7 +9512,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C697">
@@ -9525,7 +9525,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C698">
@@ -9538,7 +9538,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C699">
@@ -9551,7 +9551,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C700">
@@ -9590,7 +9590,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C703">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C717">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C721">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C725">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C726">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C733">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C736">
@@ -10037,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C737">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C741">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C745">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C757">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C761">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C763">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C764">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C769">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C781">
@@ -10640,7 +10640,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C783">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C786">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C787">
@@ -10731,7 +10731,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C790">
@@ -10923,7 +10923,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C804">
@@ -11066,7 +11066,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C815">
@@ -11118,7 +11118,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C819">
@@ -11144,7 +11144,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C821">
@@ -11209,7 +11209,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C826">
@@ -11235,7 +11235,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C828">
@@ -11248,7 +11248,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C829">
@@ -11261,7 +11261,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C830">
@@ -11931,7 +11931,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C880">
@@ -12105,7 +12105,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C893">
@@ -12144,7 +12144,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C896">
@@ -12170,7 +12170,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C898">
@@ -12370,7 +12370,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C913">
@@ -12500,7 +12500,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C923">
@@ -12526,7 +12526,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C925">
@@ -12708,7 +12708,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C939">
@@ -12721,7 +12721,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C940">
@@ -12890,7 +12890,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C953">
@@ -12903,7 +12903,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C954">
@@ -12929,7 +12929,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C956">
@@ -13020,7 +13020,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C963">
@@ -13059,7 +13059,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C966">
@@ -13072,7 +13072,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C967">
@@ -13137,7 +13137,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C972">
@@ -13202,7 +13202,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C977">
@@ -13319,7 +13319,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C986">
@@ -13332,7 +13332,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C987">
@@ -13371,7 +13371,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C990">
@@ -13462,7 +13462,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C997">
@@ -13488,7 +13488,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C999">
@@ -13878,7 +13878,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1029">
@@ -13982,7 +13982,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1037">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1041">
@@ -14200,7 +14200,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1053">
@@ -14226,7 +14226,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1055">
@@ -14239,7 +14239,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1056">
@@ -14429,41 +14429,6 @@
       </c>
       <c r="D1070">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
